--- a/data/pca/factorExposure/factorExposure_2009-09-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01724291271881834</v>
+        <v>0.01677426787656935</v>
       </c>
       <c r="C2">
-        <v>0.001552734197956492</v>
+        <v>0.0008998203421065045</v>
       </c>
       <c r="D2">
-        <v>0.0003895478070307114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008587849634293558</v>
+      </c>
+      <c r="E2">
+        <v>-0.00141106027804999</v>
+      </c>
+      <c r="F2">
+        <v>0.01224302160171189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09909000610564941</v>
+        <v>0.09386691110032415</v>
       </c>
       <c r="C4">
-        <v>0.02103783438949199</v>
+        <v>0.01444169234211922</v>
       </c>
       <c r="D4">
-        <v>-0.06829572896653267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08389946343574282</v>
+      </c>
+      <c r="E4">
+        <v>-0.02896899642267454</v>
+      </c>
+      <c r="F4">
+        <v>-0.03228371643151084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1408911649559215</v>
+        <v>0.1588638727831426</v>
       </c>
       <c r="C6">
-        <v>0.02588631177754741</v>
+        <v>0.02649885960672161</v>
       </c>
       <c r="D6">
-        <v>0.02036060640008032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02306362051111173</v>
+      </c>
+      <c r="E6">
+        <v>-0.01086249172337347</v>
+      </c>
+      <c r="F6">
+        <v>-0.04309442861689569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0669420352826461</v>
+        <v>0.06367457148097942</v>
       </c>
       <c r="C7">
-        <v>0.003487513235068155</v>
+        <v>-0.001639493025052015</v>
       </c>
       <c r="D7">
-        <v>-0.03694804367364594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05239521731729881</v>
+      </c>
+      <c r="E7">
+        <v>-0.01227966218193881</v>
+      </c>
+      <c r="F7">
+        <v>-0.04734584175698656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06387699395213686</v>
+        <v>0.05753934588794191</v>
       </c>
       <c r="C8">
-        <v>-0.01003608109925185</v>
+        <v>-0.01328902289351389</v>
       </c>
       <c r="D8">
-        <v>-0.01576862603538018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03250506421908041</v>
+      </c>
+      <c r="E8">
+        <v>-0.01785220059415964</v>
+      </c>
+      <c r="F8">
+        <v>0.02693440129303003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07659114743713408</v>
+        <v>0.07077955314537598</v>
       </c>
       <c r="C9">
-        <v>0.01789370357483367</v>
+        <v>0.01018105393775013</v>
       </c>
       <c r="D9">
-        <v>-0.06662517900700989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08700078423695252</v>
+      </c>
+      <c r="E9">
+        <v>-0.02335264312468558</v>
+      </c>
+      <c r="F9">
+        <v>-0.04778600921310405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08598613118981155</v>
+        <v>0.0916929768142522</v>
       </c>
       <c r="C10">
-        <v>0.008525811101732887</v>
+        <v>0.02104611692567158</v>
       </c>
       <c r="D10">
-        <v>0.1712657157099279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1646928549389489</v>
+      </c>
+      <c r="E10">
+        <v>0.03332982649595736</v>
+      </c>
+      <c r="F10">
+        <v>0.05442741167040344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09375463806763433</v>
+        <v>0.0880293075031759</v>
       </c>
       <c r="C11">
-        <v>0.01819819450994028</v>
+        <v>0.01026173333113583</v>
       </c>
       <c r="D11">
-        <v>-0.09911798537966511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169927559775867</v>
+      </c>
+      <c r="E11">
+        <v>-0.04603605776126523</v>
+      </c>
+      <c r="F11">
+        <v>-0.0228643891963872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1001182285767832</v>
+        <v>0.09197280328255676</v>
       </c>
       <c r="C12">
-        <v>0.01661133819215121</v>
+        <v>0.007639719211720727</v>
       </c>
       <c r="D12">
-        <v>-0.09813572052625838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320469547704042</v>
+      </c>
+      <c r="E12">
+        <v>-0.04614079001901315</v>
+      </c>
+      <c r="F12">
+        <v>-0.02926887236161633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0408032266197657</v>
+        <v>0.04113302309830674</v>
       </c>
       <c r="C13">
-        <v>0.006369858099273919</v>
+        <v>0.002288303248316583</v>
       </c>
       <c r="D13">
-        <v>-0.03377897152343588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0541878738485978</v>
+      </c>
+      <c r="E13">
+        <v>0.005103267722257706</v>
+      </c>
+      <c r="F13">
+        <v>-0.002724835661529762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02134184450565204</v>
+        <v>0.02399376601922871</v>
       </c>
       <c r="C14">
-        <v>0.0155221366954872</v>
+        <v>0.01379115385482555</v>
       </c>
       <c r="D14">
-        <v>-0.02360828337673321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03276408708936496</v>
+      </c>
+      <c r="E14">
+        <v>-0.01854909466611467</v>
+      </c>
+      <c r="F14">
+        <v>-0.01379385071222846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03602698097470729</v>
+        <v>0.03287499653844869</v>
       </c>
       <c r="C15">
-        <v>0.008137726707385452</v>
+        <v>0.004622062915903563</v>
       </c>
       <c r="D15">
-        <v>-0.024371968597765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04483966639170774</v>
+      </c>
+      <c r="E15">
+        <v>-0.006062347029792406</v>
+      </c>
+      <c r="F15">
+        <v>-0.02489074693071619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07949326870030038</v>
+        <v>0.07411805323410162</v>
       </c>
       <c r="C16">
-        <v>0.009656332863482537</v>
+        <v>0.0008101468797604777</v>
       </c>
       <c r="D16">
-        <v>-0.09946185071067698</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1276270770111476</v>
+      </c>
+      <c r="E16">
+        <v>-0.06078138075308986</v>
+      </c>
+      <c r="F16">
+        <v>-0.02683525806123334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006920704195249842</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001660604800346135</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001124250621279082</v>
+      </c>
+      <c r="E17">
+        <v>-0.0006344031488809191</v>
+      </c>
+      <c r="F17">
+        <v>0.001173216869634383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.005616649840524972</v>
+        <v>0.03628280163574175</v>
       </c>
       <c r="C18">
-        <v>-0.001119651873398222</v>
+        <v>-0.002983347870107971</v>
       </c>
       <c r="D18">
-        <v>-0.0078414233238929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01615277682772372</v>
+      </c>
+      <c r="E18">
+        <v>0.008896830892518231</v>
+      </c>
+      <c r="F18">
+        <v>0.009257722717011948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06124767466494178</v>
+        <v>0.06177910776210326</v>
       </c>
       <c r="C20">
-        <v>0.007479172013427308</v>
+        <v>-3.403577580719195e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04481768194331899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07825339239252539</v>
+      </c>
+      <c r="E20">
+        <v>-0.05648888555450567</v>
+      </c>
+      <c r="F20">
+        <v>-0.02591463695778727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04484460103772929</v>
+        <v>0.0407083005561088</v>
       </c>
       <c r="C21">
-        <v>0.0104452419163746</v>
+        <v>0.006400139356204368</v>
       </c>
       <c r="D21">
-        <v>-0.01411289716986679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03785726974138333</v>
+      </c>
+      <c r="E21">
+        <v>0.002021972420913957</v>
+      </c>
+      <c r="F21">
+        <v>0.02381719928300555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03838135394105028</v>
+        <v>0.04294552232933618</v>
       </c>
       <c r="C22">
-        <v>0.0003836932031977873</v>
+        <v>0.0002729636495543439</v>
       </c>
       <c r="D22">
-        <v>0.01389809918134637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006973662860710429</v>
+      </c>
+      <c r="E22">
+        <v>-0.0347734492598402</v>
+      </c>
+      <c r="F22">
+        <v>0.03615638095818179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03834136546063287</v>
+        <v>0.04292127542619181</v>
       </c>
       <c r="C23">
-        <v>0.0003749446304810875</v>
+        <v>0.0002644858178206662</v>
       </c>
       <c r="D23">
-        <v>0.01387612679531001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006989132436078727</v>
+      </c>
+      <c r="E23">
+        <v>-0.03495625956499689</v>
+      </c>
+      <c r="F23">
+        <v>0.03611882697084846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0846245245697808</v>
+        <v>0.07979731187249994</v>
       </c>
       <c r="C24">
-        <v>0.009829624554914328</v>
+        <v>0.001458993503421526</v>
       </c>
       <c r="D24">
-        <v>-0.1067506002671088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.121422301783788</v>
+      </c>
+      <c r="E24">
+        <v>-0.04907143502267748</v>
+      </c>
+      <c r="F24">
+        <v>-0.02716997444580774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09156312477896167</v>
+        <v>0.0851974413434123</v>
       </c>
       <c r="C25">
-        <v>0.0119665470164065</v>
+        <v>0.004223912788362972</v>
       </c>
       <c r="D25">
-        <v>-0.08974478925198623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1096149198217925</v>
+      </c>
+      <c r="E25">
+        <v>-0.03210166410098252</v>
+      </c>
+      <c r="F25">
+        <v>-0.02748690228466968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05905238748303603</v>
+        <v>0.05889404849482404</v>
       </c>
       <c r="C26">
-        <v>0.01837743086090414</v>
+        <v>0.0143470731546283</v>
       </c>
       <c r="D26">
-        <v>-0.01315562378988283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04089607111926515</v>
+      </c>
+      <c r="E26">
+        <v>-0.0285445060256832</v>
+      </c>
+      <c r="F26">
+        <v>0.007187206207358549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1355552460724039</v>
+        <v>0.1424513318238436</v>
       </c>
       <c r="C28">
-        <v>0.004377116080812483</v>
+        <v>0.02239669069854041</v>
       </c>
       <c r="D28">
-        <v>0.2769345864679151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2611183378290259</v>
+      </c>
+      <c r="E28">
+        <v>0.06718805295932712</v>
+      </c>
+      <c r="F28">
+        <v>-0.00809000493686678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0267822467262031</v>
+        <v>0.02855694971623639</v>
       </c>
       <c r="C29">
-        <v>0.01015272802929898</v>
+        <v>0.008663822986119837</v>
       </c>
       <c r="D29">
-        <v>-0.01901140315342694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03114365466285695</v>
+      </c>
+      <c r="E29">
+        <v>-0.01365031076542595</v>
+      </c>
+      <c r="F29">
+        <v>0.01290159834211933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06995546410673982</v>
+        <v>0.05859755289018624</v>
       </c>
       <c r="C30">
-        <v>0.0101102586954526</v>
+        <v>0.002434487228831409</v>
       </c>
       <c r="D30">
-        <v>-0.07278391406875476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0894466278031928</v>
+      </c>
+      <c r="E30">
+        <v>-0.01558422359873861</v>
+      </c>
+      <c r="F30">
+        <v>-0.07759896942708756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0519662215429666</v>
+        <v>0.05105452801668213</v>
       </c>
       <c r="C31">
-        <v>0.01676085617285434</v>
+        <v>0.01546189565805341</v>
       </c>
       <c r="D31">
-        <v>-0.02294462155813127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02514023476392139</v>
+      </c>
+      <c r="E31">
+        <v>-0.02881091222808271</v>
+      </c>
+      <c r="F31">
+        <v>0.001205147666817909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04479247910348084</v>
+        <v>0.05108257244872352</v>
       </c>
       <c r="C32">
-        <v>0.001922090989923063</v>
+        <v>-0.001943431754511469</v>
       </c>
       <c r="D32">
-        <v>-0.02031253650096542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03648900040455843</v>
+      </c>
+      <c r="E32">
+        <v>-0.03414549859480253</v>
+      </c>
+      <c r="F32">
+        <v>-0.003669511810758377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09689517807260517</v>
+        <v>0.08870346368298924</v>
       </c>
       <c r="C33">
-        <v>0.01438809782059577</v>
+        <v>0.006566535373698983</v>
       </c>
       <c r="D33">
-        <v>-0.0818611446645421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.101235862190064</v>
+      </c>
+      <c r="E33">
+        <v>-0.04314566909999574</v>
+      </c>
+      <c r="F33">
+        <v>-0.03823776416830777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07419470640153439</v>
+        <v>0.06768807714414614</v>
       </c>
       <c r="C34">
-        <v>0.01662887800999042</v>
+        <v>0.009930445046429193</v>
       </c>
       <c r="D34">
-        <v>-0.09064216054137268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1097030476240463</v>
+      </c>
+      <c r="E34">
+        <v>-0.03445964020502724</v>
+      </c>
+      <c r="F34">
+        <v>-0.03380020870813191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02288890607191717</v>
+        <v>0.02525824064071429</v>
       </c>
       <c r="C35">
-        <v>0.002702438877999583</v>
+        <v>0.002525150042422796</v>
       </c>
       <c r="D35">
-        <v>-0.003775238336380303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01148559219976683</v>
+      </c>
+      <c r="E35">
+        <v>-0.01189218737195247</v>
+      </c>
+      <c r="F35">
+        <v>-0.00134827456067377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02108805269998881</v>
+        <v>0.02757872942450996</v>
       </c>
       <c r="C36">
-        <v>0.009150765667559969</v>
+        <v>0.006795742866404534</v>
       </c>
       <c r="D36">
-        <v>-0.02807915337644296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04001147045808115</v>
+      </c>
+      <c r="E36">
+        <v>-0.01667940332843542</v>
+      </c>
+      <c r="F36">
+        <v>-0.01568414525979369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004788466567699859</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005958337891915397</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001858585470362228</v>
+      </c>
+      <c r="E37">
+        <v>0.001236637773121866</v>
+      </c>
+      <c r="F37">
+        <v>-0.0002611407227053894</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0006904723185398922</v>
+        <v>-0.0004406166820860798</v>
       </c>
       <c r="C38">
-        <v>-7.513939918409069e-05</v>
+        <v>-0.000114827866009527</v>
       </c>
       <c r="D38">
-        <v>-0.0001652536681579743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-3.464718739739788e-05</v>
+      </c>
+      <c r="E38">
+        <v>0.0009925796530621241</v>
+      </c>
+      <c r="F38">
+        <v>-0.000534740156577313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1214460454398725</v>
+        <v>0.1040274777121517</v>
       </c>
       <c r="C39">
-        <v>0.0255224127836185</v>
+        <v>0.0153726356829269</v>
       </c>
       <c r="D39">
-        <v>-0.1436309462651462</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1549800093906435</v>
+      </c>
+      <c r="E39">
+        <v>-0.05966547600336171</v>
+      </c>
+      <c r="F39">
+        <v>-0.02976193730880235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03437166869505379</v>
+        <v>0.04125083024268857</v>
       </c>
       <c r="C40">
-        <v>0.009996885670203914</v>
+        <v>0.007056526981165739</v>
       </c>
       <c r="D40">
-        <v>0.006823742566837245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03099604072304075</v>
+      </c>
+      <c r="E40">
+        <v>-0.00171662331900933</v>
+      </c>
+      <c r="F40">
+        <v>0.0156036864604728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02467838256140914</v>
+        <v>0.02794390042063589</v>
       </c>
       <c r="C41">
-        <v>0.007623659763596776</v>
+        <v>0.006864677285240576</v>
       </c>
       <c r="D41">
-        <v>-0.006905159949139838</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01100454513588886</v>
+      </c>
+      <c r="E41">
+        <v>-0.0124094397200897</v>
+      </c>
+      <c r="F41">
+        <v>0.005890260993913534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03968492747954476</v>
+        <v>0.04072815588740485</v>
       </c>
       <c r="C43">
-        <v>0.008579744923066556</v>
+        <v>0.007049108221425304</v>
       </c>
       <c r="D43">
-        <v>-0.008574952834042648</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01903481644583946</v>
+      </c>
+      <c r="E43">
+        <v>-0.02533731100232237</v>
+      </c>
+      <c r="F43">
+        <v>0.01236276170957564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07986887111865455</v>
+        <v>0.07898616549104186</v>
       </c>
       <c r="C44">
-        <v>0.02791034863013681</v>
+        <v>0.01903966212858031</v>
       </c>
       <c r="D44">
-        <v>-0.07276576076755484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0975652708187781</v>
+      </c>
+      <c r="E44">
+        <v>-0.06131572614563829</v>
+      </c>
+      <c r="F44">
+        <v>-0.1568645273311789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0182679765124227</v>
+        <v>0.02317563161262178</v>
       </c>
       <c r="C46">
-        <v>0.004014837560038805</v>
+        <v>0.003223490358207137</v>
       </c>
       <c r="D46">
-        <v>0.001946740005645469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01345289289903806</v>
+      </c>
+      <c r="E46">
+        <v>-0.02594267771146178</v>
+      </c>
+      <c r="F46">
+        <v>0.005503471742083974</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05213284240121883</v>
+        <v>0.05272520948603868</v>
       </c>
       <c r="C47">
-        <v>0.004347607924689189</v>
+        <v>0.003542763974756538</v>
       </c>
       <c r="D47">
-        <v>-0.002648171819025887</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01294549675721146</v>
+      </c>
+      <c r="E47">
+        <v>-0.02366030589074759</v>
+      </c>
+      <c r="F47">
+        <v>0.03188939494834976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04700269272156031</v>
+        <v>0.05028944927329135</v>
       </c>
       <c r="C48">
-        <v>0.006059166031082869</v>
+        <v>0.002146110362794685</v>
       </c>
       <c r="D48">
-        <v>-0.03625245481569837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05051839796588147</v>
+      </c>
+      <c r="E48">
+        <v>0.004660411782813674</v>
+      </c>
+      <c r="F48">
+        <v>-0.01000829641018118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2015721149810718</v>
+        <v>0.2000088496587381</v>
       </c>
       <c r="C49">
-        <v>0.01779032835320949</v>
+        <v>0.01879094476571364</v>
       </c>
       <c r="D49">
-        <v>0.005917608838713423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006696647198316529</v>
+      </c>
+      <c r="E49">
+        <v>-0.03070823095071601</v>
+      </c>
+      <c r="F49">
+        <v>-0.03707805537869265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0508814670964431</v>
+        <v>0.05124656122288993</v>
       </c>
       <c r="C50">
-        <v>0.01294179277550284</v>
+        <v>0.01114043069030963</v>
       </c>
       <c r="D50">
-        <v>-0.02106998834114322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02470863464188937</v>
+      </c>
+      <c r="E50">
+        <v>-0.030184430487957</v>
+      </c>
+      <c r="F50">
+        <v>-0.009483465305182574</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1575868145194793</v>
+        <v>0.1484985954065283</v>
       </c>
       <c r="C52">
-        <v>0.01804232223290513</v>
+        <v>0.01720475534228382</v>
       </c>
       <c r="D52">
-        <v>-0.06059870744334137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.0428496960381814</v>
+      </c>
+      <c r="E52">
+        <v>-0.02072605350491196</v>
+      </c>
+      <c r="F52">
+        <v>-0.04347199750074292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1707283183438398</v>
+        <v>0.1713631210333103</v>
       </c>
       <c r="C53">
-        <v>0.01713504105430916</v>
+        <v>0.01981017702728677</v>
       </c>
       <c r="D53">
-        <v>-0.02998700517115943</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005229949102451772</v>
+      </c>
+      <c r="E53">
+        <v>-0.02875893504663426</v>
+      </c>
+      <c r="F53">
+        <v>-0.07480797325157083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02055030797391192</v>
+        <v>0.02061438642709121</v>
       </c>
       <c r="C54">
-        <v>0.01296566235291862</v>
+        <v>0.01129808293291683</v>
       </c>
       <c r="D54">
-        <v>-0.02296536984833904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03409757422492411</v>
+      </c>
+      <c r="E54">
+        <v>-0.02154888531476832</v>
+      </c>
+      <c r="F54">
+        <v>0.004984439966478884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1175585442574693</v>
+        <v>0.1146695862595895</v>
       </c>
       <c r="C55">
-        <v>0.01584344049345522</v>
+        <v>0.01744385901708786</v>
       </c>
       <c r="D55">
-        <v>-0.02474713464574957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.007652325327577611</v>
+      </c>
+      <c r="E55">
+        <v>-0.02398387894260578</v>
+      </c>
+      <c r="F55">
+        <v>-0.04755022675427976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1755287568119075</v>
+        <v>0.1769644311526459</v>
       </c>
       <c r="C56">
-        <v>0.01528683037765991</v>
+        <v>0.01760369570916534</v>
       </c>
       <c r="D56">
-        <v>-0.01388866212104084</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001709492225642937</v>
+      </c>
+      <c r="E56">
+        <v>-0.03361402870260519</v>
+      </c>
+      <c r="F56">
+        <v>-0.052542230978213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04346799883414331</v>
+        <v>0.04499708922443007</v>
       </c>
       <c r="C58">
-        <v>0.007202550072665314</v>
+        <v>-0.0004409028404630732</v>
       </c>
       <c r="D58">
-        <v>-0.04724249025603856</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07180029452331034</v>
+      </c>
+      <c r="E58">
+        <v>-0.0324038568246811</v>
+      </c>
+      <c r="F58">
+        <v>0.03867338424723514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1665612723738152</v>
+        <v>0.1680694456855099</v>
       </c>
       <c r="C59">
-        <v>0.006066555118073846</v>
+        <v>0.02260635390667335</v>
       </c>
       <c r="D59">
-        <v>0.2234481763555173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.216845884949473</v>
+      </c>
+      <c r="E59">
+        <v>0.04587791355022493</v>
+      </c>
+      <c r="F59">
+        <v>0.03587832747362267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2413897828886604</v>
+        <v>0.231830714003803</v>
       </c>
       <c r="C60">
-        <v>-0.001721909263144128</v>
+        <v>-0.002293194217355077</v>
       </c>
       <c r="D60">
-        <v>-0.06294500092372064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04134135525760831</v>
+      </c>
+      <c r="E60">
+        <v>-0.00927187500965434</v>
+      </c>
+      <c r="F60">
+        <v>0.005554438938238625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09285221966816633</v>
+        <v>0.08016434287405318</v>
       </c>
       <c r="C61">
-        <v>0.01867919416052939</v>
+        <v>0.01106504520527933</v>
       </c>
       <c r="D61">
-        <v>-0.09895265705663667</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1178271390179404</v>
+      </c>
+      <c r="E61">
+        <v>-0.03944140684684663</v>
+      </c>
+      <c r="F61">
+        <v>-0.0135634710913273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1727866122738888</v>
+        <v>0.1695411493644893</v>
       </c>
       <c r="C62">
-        <v>0.01865670176468507</v>
+        <v>0.0206228925742852</v>
       </c>
       <c r="D62">
-        <v>-0.01715301055415727</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005796872478956585</v>
+      </c>
+      <c r="E62">
+        <v>-0.03377131268139081</v>
+      </c>
+      <c r="F62">
+        <v>-0.03611676675223037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04576117209959167</v>
+        <v>0.04556934772368117</v>
       </c>
       <c r="C63">
-        <v>0.006688474941652734</v>
+        <v>0.001613456092744054</v>
       </c>
       <c r="D63">
-        <v>-0.04176308064903878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05918427721280281</v>
+      </c>
+      <c r="E63">
+        <v>-0.0231503272037987</v>
+      </c>
+      <c r="F63">
+        <v>-0.003617742161860825</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1050081481023374</v>
+        <v>0.1104964058630793</v>
       </c>
       <c r="C64">
-        <v>0.01487338121795453</v>
+        <v>0.01135232988115134</v>
       </c>
       <c r="D64">
-        <v>-0.02432068038084609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04308632716276508</v>
+      </c>
+      <c r="E64">
+        <v>-0.02263686654660753</v>
+      </c>
+      <c r="F64">
+        <v>-0.02497341077432351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.136192371639087</v>
+        <v>0.1504156831834525</v>
       </c>
       <c r="C65">
-        <v>0.03110115640464502</v>
+        <v>0.0339742876519225</v>
       </c>
       <c r="D65">
-        <v>0.04178567121758163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04361872973022943</v>
+      </c>
+      <c r="E65">
+        <v>-0.007115141601038947</v>
+      </c>
+      <c r="F65">
+        <v>-0.03796803535506968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1479163630546184</v>
+        <v>0.1235664393021206</v>
       </c>
       <c r="C66">
-        <v>0.02221274281854843</v>
+        <v>0.01328453255547901</v>
       </c>
       <c r="D66">
-        <v>-0.1265163081947937</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1434196993971783</v>
+      </c>
+      <c r="E66">
+        <v>-0.06575215959957584</v>
+      </c>
+      <c r="F66">
+        <v>-0.03404095899311387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06328297315942376</v>
+        <v>0.05741471263516917</v>
       </c>
       <c r="C67">
-        <v>0.00590231236729253</v>
+        <v>0.002755030863904617</v>
       </c>
       <c r="D67">
-        <v>-0.058600392454558</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05614384073375626</v>
+      </c>
+      <c r="E67">
+        <v>-0.01654946303053157</v>
+      </c>
+      <c r="F67">
+        <v>0.0314593238307264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1087171055828052</v>
+        <v>0.1167270643716593</v>
       </c>
       <c r="C68">
-        <v>0.01425236062946181</v>
+        <v>0.03315975716781395</v>
       </c>
       <c r="D68">
-        <v>0.2698433505776059</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2609000331269957</v>
+      </c>
+      <c r="E68">
+        <v>0.08688205309045041</v>
+      </c>
+      <c r="F68">
+        <v>-0.003143269845107482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04149454175151161</v>
+        <v>0.03925907142606527</v>
       </c>
       <c r="C69">
-        <v>0.0008629464827084728</v>
+        <v>0.001192283196774173</v>
       </c>
       <c r="D69">
-        <v>-0.0116763824931642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008634355166180467</v>
+      </c>
+      <c r="E69">
+        <v>-0.02421663632233357</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005654413264674719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06450421519050009</v>
+        <v>0.06684208044910148</v>
       </c>
       <c r="C70">
-        <v>-0.02368867988554373</v>
+        <v>-0.02743480638191131</v>
       </c>
       <c r="D70">
-        <v>0.02502301426302777</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02349954935860321</v>
+      </c>
+      <c r="E70">
+        <v>0.03345237160717274</v>
+      </c>
+      <c r="F70">
+        <v>0.1855308276037653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1232068025249723</v>
+        <v>0.1364962793635263</v>
       </c>
       <c r="C71">
-        <v>0.01799290757165842</v>
+        <v>0.03747916625811734</v>
       </c>
       <c r="D71">
-        <v>0.2895901655736295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2722610329598362</v>
+      </c>
+      <c r="E71">
+        <v>0.09741041946427519</v>
+      </c>
+      <c r="F71">
+        <v>-0.009012099845214994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1367743962644133</v>
+        <v>0.1427175432360556</v>
       </c>
       <c r="C72">
-        <v>0.02575785897336191</v>
+        <v>0.02720750886406993</v>
       </c>
       <c r="D72">
-        <v>-0.006966377310436431</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003564638478093341</v>
+      </c>
+      <c r="E72">
+        <v>-0.03604467717999251</v>
+      </c>
+      <c r="F72">
+        <v>-0.03239321270891964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2013708661239606</v>
+        <v>0.2039677328261836</v>
       </c>
       <c r="C73">
-        <v>0.01381344373830507</v>
+        <v>0.01282154606202267</v>
       </c>
       <c r="D73">
-        <v>-0.03062353410953969</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01751104463865411</v>
+      </c>
+      <c r="E73">
+        <v>-0.06321251767846217</v>
+      </c>
+      <c r="F73">
+        <v>-0.03760023888837234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09209255689026462</v>
+        <v>0.09471380803141163</v>
       </c>
       <c r="C74">
-        <v>0.01237286249306602</v>
+        <v>0.01334605912838076</v>
       </c>
       <c r="D74">
-        <v>-0.03243633098804973</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01692917151040205</v>
+      </c>
+      <c r="E74">
+        <v>-0.04402402914203428</v>
+      </c>
+      <c r="F74">
+        <v>-0.05826974476348304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1360489846296362</v>
+        <v>0.1275648337682763</v>
       </c>
       <c r="C75">
-        <v>0.02794632211897888</v>
+        <v>0.0282673594521573</v>
       </c>
       <c r="D75">
-        <v>-0.04596557115070159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03055505364713227</v>
+      </c>
+      <c r="E75">
+        <v>-0.05806413168776419</v>
+      </c>
+      <c r="F75">
+        <v>-0.0229635366931186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07285493529072555</v>
+        <v>0.08869348959226213</v>
       </c>
       <c r="C77">
-        <v>0.01658593165574343</v>
+        <v>0.007977846388051442</v>
       </c>
       <c r="D77">
-        <v>-0.09607065506074716</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1130052391957272</v>
+      </c>
+      <c r="E77">
+        <v>-0.04166096575082915</v>
+      </c>
+      <c r="F77">
+        <v>-0.03424388484629478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1065235849155715</v>
+        <v>0.1006588842214056</v>
       </c>
       <c r="C78">
-        <v>0.04777545043593229</v>
+        <v>0.03944354232932632</v>
       </c>
       <c r="D78">
-        <v>-0.1009448385032276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1129607340033787</v>
+      </c>
+      <c r="E78">
+        <v>-0.07428416256254443</v>
+      </c>
+      <c r="F78">
+        <v>-0.05032359885510379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1651234607332148</v>
+        <v>0.1635892962358181</v>
       </c>
       <c r="C79">
-        <v>0.02218495784871712</v>
+        <v>0.0229745136930389</v>
       </c>
       <c r="D79">
-        <v>-0.01853011046682456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01462778456266566</v>
+      </c>
+      <c r="E79">
+        <v>-0.04614266635206716</v>
+      </c>
+      <c r="F79">
+        <v>-0.01261237225589533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08962577621282392</v>
+        <v>0.08213449767203937</v>
       </c>
       <c r="C80">
-        <v>0.001736560227918741</v>
+        <v>-0.001034040131846581</v>
       </c>
       <c r="D80">
-        <v>-0.05111206891646117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05649868361747062</v>
+      </c>
+      <c r="E80">
+        <v>-0.03581114514980438</v>
+      </c>
+      <c r="F80">
+        <v>0.02174548497918022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1216090679424339</v>
+        <v>0.1188426710212844</v>
       </c>
       <c r="C81">
-        <v>0.02988188467709182</v>
+        <v>0.03187790450785691</v>
       </c>
       <c r="D81">
-        <v>-0.04601840351541458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01546328467177843</v>
+      </c>
+      <c r="E81">
+        <v>-0.05697740355255707</v>
+      </c>
+      <c r="F81">
+        <v>-0.01891354047343694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1639216072351324</v>
+        <v>0.1652696968234512</v>
       </c>
       <c r="C82">
-        <v>0.02208828969516685</v>
+        <v>0.02488498934423913</v>
       </c>
       <c r="D82">
-        <v>-0.0315968972254907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004329714450210515</v>
+      </c>
+      <c r="E82">
+        <v>-0.0263420455250588</v>
+      </c>
+      <c r="F82">
+        <v>-0.0819814107344683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07147022974235613</v>
+        <v>0.05844976161915301</v>
       </c>
       <c r="C83">
-        <v>0.006267223314179385</v>
+        <v>0.002680794105320543</v>
       </c>
       <c r="D83">
-        <v>-0.03056722264493806</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05132601126317823</v>
+      </c>
+      <c r="E83">
+        <v>-0.003263794186246662</v>
+      </c>
+      <c r="F83">
+        <v>0.03021433727730474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06763636193426421</v>
+        <v>0.05951945184464538</v>
       </c>
       <c r="C84">
-        <v>0.01552962042697916</v>
+        <v>0.01125246348215237</v>
       </c>
       <c r="D84">
-        <v>-0.05549271996997466</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0630447013236244</v>
+      </c>
+      <c r="E84">
+        <v>-0.006916535407230502</v>
+      </c>
+      <c r="F84">
+        <v>-0.005779766975321897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1386324193822041</v>
+        <v>0.135595936343991</v>
       </c>
       <c r="C85">
-        <v>0.02708185180334883</v>
+        <v>0.02824357878504944</v>
       </c>
       <c r="D85">
-        <v>-0.02383727152088551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009484650801090927</v>
+      </c>
+      <c r="E85">
+        <v>-0.03645274498350813</v>
+      </c>
+      <c r="F85">
+        <v>-0.04808702412970758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.0981115514331074</v>
+        <v>0.09461773992201618</v>
       </c>
       <c r="C86">
-        <v>-0.001430653967498968</v>
+        <v>-0.005563170425546855</v>
       </c>
       <c r="D86">
-        <v>0.03548901631373374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04201288040298619</v>
+      </c>
+      <c r="E86">
+        <v>-0.2282888256417386</v>
+      </c>
+      <c r="F86">
+        <v>0.9042926577442212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09949040799459588</v>
+        <v>0.09437394924073278</v>
       </c>
       <c r="C87">
-        <v>0.02966256083761458</v>
+        <v>0.01912395147502131</v>
       </c>
       <c r="D87">
-        <v>-0.05520785815750273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09380155828261905</v>
+      </c>
+      <c r="E87">
+        <v>0.05347943903230527</v>
+      </c>
+      <c r="F87">
+        <v>-0.04540079419361508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05811753789034723</v>
+        <v>0.06055092957147638</v>
       </c>
       <c r="C88">
-        <v>0.006278403147137419</v>
+        <v>0.002111461814048379</v>
       </c>
       <c r="D88">
-        <v>-0.04708524793670933</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04987618520024947</v>
+      </c>
+      <c r="E88">
+        <v>-0.02439828307524924</v>
+      </c>
+      <c r="F88">
+        <v>-0.01404688399332727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.120422047560024</v>
+        <v>0.1297419285736939</v>
       </c>
       <c r="C89">
-        <v>-0.002982994112190381</v>
+        <v>0.01371760590473205</v>
       </c>
       <c r="D89">
-        <v>0.2759792008129119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2459130087968502</v>
+      </c>
+      <c r="E89">
+        <v>0.08932762942938888</v>
+      </c>
+      <c r="F89">
+        <v>0.009022024790776481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1352469248658535</v>
+        <v>0.1512682115537745</v>
       </c>
       <c r="C90">
-        <v>0.01526700602939449</v>
+        <v>0.03428358255342169</v>
       </c>
       <c r="D90">
-        <v>0.2892221898239525</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2709486996363486</v>
+      </c>
+      <c r="E90">
+        <v>0.1138756416216979</v>
+      </c>
+      <c r="F90">
+        <v>0.007979371112454251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1183429873020804</v>
+        <v>0.1212358969874756</v>
       </c>
       <c r="C91">
-        <v>0.01708952838545476</v>
+        <v>0.01995086801152198</v>
       </c>
       <c r="D91">
-        <v>-0.002144267335847591</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01513620391029117</v>
+      </c>
+      <c r="E91">
+        <v>-0.05549283372138963</v>
+      </c>
+      <c r="F91">
+        <v>-0.0002323733552836133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1454228246728729</v>
+        <v>0.1479360614498007</v>
       </c>
       <c r="C92">
-        <v>0.003492140740862296</v>
+        <v>0.02488658153970144</v>
       </c>
       <c r="D92">
-        <v>0.3135501728418135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2911518579500257</v>
+      </c>
+      <c r="E92">
+        <v>0.1017250638865006</v>
+      </c>
+      <c r="F92">
+        <v>0.01231087070992049</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1386874939136559</v>
+        <v>0.1515382482201901</v>
       </c>
       <c r="C93">
-        <v>0.01068363676238342</v>
+        <v>0.0293546796424756</v>
       </c>
       <c r="D93">
-        <v>0.2734589680512642</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2672484434241307</v>
+      </c>
+      <c r="E93">
+        <v>0.07826293007551291</v>
+      </c>
+      <c r="F93">
+        <v>-0.002828295181351421</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1347244085031477</v>
+        <v>0.1285091117021317</v>
       </c>
       <c r="C94">
-        <v>0.02525670217771299</v>
+        <v>0.02465745299507628</v>
       </c>
       <c r="D94">
-        <v>-0.06157218969401937</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04186777925393501</v>
+      </c>
+      <c r="E94">
+        <v>-0.05755208249626166</v>
+      </c>
+      <c r="F94">
+        <v>-0.03636988646998848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266024187029753</v>
+        <v>0.1265543008351273</v>
       </c>
       <c r="C95">
-        <v>0.01097655410311816</v>
+        <v>0.003151411913966434</v>
       </c>
       <c r="D95">
-        <v>-0.07153343932821918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09444989446762006</v>
+      </c>
+      <c r="E95">
+        <v>-0.04999271493983864</v>
+      </c>
+      <c r="F95">
+        <v>0.007563400920504977</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1068799942806862</v>
+        <v>0.1092744621250822</v>
       </c>
       <c r="C96">
-        <v>-0.9888034472153013</v>
+        <v>-0.9870608847634887</v>
       </c>
       <c r="D96">
-        <v>-0.01519722565321567</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05198346815380649</v>
+      </c>
+      <c r="E96">
+        <v>-0.05296932188901172</v>
+      </c>
+      <c r="F96">
+        <v>-0.04260474922042069</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1869270436034572</v>
+        <v>0.1909405485007916</v>
       </c>
       <c r="C97">
-        <v>-0.008095313908178929</v>
+        <v>-0.006937079539092337</v>
       </c>
       <c r="D97">
-        <v>0.03992698812178839</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02053347176883667</v>
+      </c>
+      <c r="E97">
+        <v>-0.02105954837863862</v>
+      </c>
+      <c r="F97">
+        <v>0.09578553665885249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1947480280410089</v>
+        <v>0.2057654073705604</v>
       </c>
       <c r="C98">
-        <v>0.009565537056331104</v>
+        <v>0.007063216118397113</v>
       </c>
       <c r="D98">
-        <v>-0.0004238773588242517</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01313808426634183</v>
+      </c>
+      <c r="E98">
+        <v>0.07766213960133524</v>
+      </c>
+      <c r="F98">
+        <v>0.09308744991898067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05579415075946636</v>
+        <v>0.05502098939218943</v>
       </c>
       <c r="C99">
-        <v>-0.002155160259820731</v>
+        <v>-0.00446902649267775</v>
       </c>
       <c r="D99">
-        <v>-0.02276640568602925</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03960386639092602</v>
+      </c>
+      <c r="E99">
+        <v>-0.0225110854553234</v>
+      </c>
+      <c r="F99">
+        <v>-0.003078922859951958</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1318248275903394</v>
+        <v>0.1278386237636469</v>
       </c>
       <c r="C100">
-        <v>-0.02833215969731821</v>
+        <v>-0.053583489351689</v>
       </c>
       <c r="D100">
-        <v>-0.3746807052271242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3470370182923094</v>
+      </c>
+      <c r="E100">
+        <v>0.8858494908942024</v>
+      </c>
+      <c r="F100">
+        <v>0.1565052879565137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02661399713436344</v>
+        <v>0.02851954211010559</v>
       </c>
       <c r="C101">
-        <v>0.01010434072923135</v>
+        <v>0.008689055801744176</v>
       </c>
       <c r="D101">
-        <v>-0.01836401881932922</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03074697434338021</v>
+      </c>
+      <c r="E101">
+        <v>-0.01304513163099208</v>
+      </c>
+      <c r="F101">
+        <v>0.01412001366969225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
